--- a/example/batchConvert/后台表/eventDrop.xlsx
+++ b/example/batchConvert/后台表/eventDrop.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/batchConvert/后台表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43CFF556-76BF-994F-B84C-3E364552D254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57581D46-C152-3C4D-A2DD-11921845307F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="2840" windowWidth="27300" windowHeight="16360" activeTab="1" xr2:uid="{70AF40B2-777D-9449-B309-537DB8FBA7D0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="eventDrop" sheetId="1" r:id="rId1"/>
+    <sheet name="property" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -582,7 +582,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/example/batchConvert/后台表/eventDrop.xlsx
+++ b/example/batchConvert/后台表/eventDrop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/batchConvert/后台表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57581D46-C152-3C4D-A2DD-11921845307F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0ED3AC-BA80-E743-BF27-28C2888B8AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="2840" windowWidth="27300" windowHeight="16360" activeTab="1" xr2:uid="{70AF40B2-777D-9449-B309-537DB8FBA7D0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>我们不是做慈善的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +586,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -598,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
